--- a/supplementary_data/Supplementary data 2.xlsx
+++ b/supplementary_data/Supplementary data 2.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m221138/RA_plasma_metabolites/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m221138/RA_plasma_metabolites/supplementary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E715EDE-64DB-FA40-AF33-5B8737AB4814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE29F99-7764-7048-9A31-9929C5E04CE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="-17640" windowWidth="32240" windowHeight="17260" xr2:uid="{4B2BBF7A-3D80-C843-940A-4700C1C34797}"/>
+    <workbookView xWindow="-6180" yWindow="-19380" windowWidth="32240" windowHeight="17260" activeTab="1" xr2:uid="{4B2BBF7A-3D80-C843-940A-4700C1C34797}"/>
   </bookViews>
   <sheets>
     <sheet name="HD4" sheetId="1" r:id="rId1"/>
-    <sheet name="CLP SC" sheetId="7" r:id="rId2"/>
-    <sheet name="data profile" sheetId="6" r:id="rId3"/>
+    <sheet name="data profile" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HD4'!$A$1:$K$1</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5226" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="2635">
   <si>
     <t>chemID</t>
   </si>
@@ -7916,10 +7915,6 @@
   </si>
   <si>
     <t>4-ethylcatechol sulfate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8326,7 +8321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189E9D88-77A3-A84A-8BEB-243763CFFF41}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -8393,7 +8388,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B3">
         <v>1.21960701754385</v>
@@ -8419,7 +8414,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B4">
         <v>2.1421578947368398</v>
@@ -8445,7 +8440,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B5">
         <v>1.89367543859649</v>
@@ -8471,7 +8466,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B6">
         <v>1.22029285714285</v>
@@ -8549,7 +8544,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B9">
         <v>1.2341879310344801</v>
@@ -8601,7 +8596,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B11">
         <v>1.5841928571428501</v>
@@ -8627,7 +8622,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B12">
         <v>1.6972775862068901</v>
@@ -8659,32 +8654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E533CA58-EB38-9E48-BC73-7DF53E63A143}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A75AB6-95E7-174F-A29D-C037589A2189}">
   <dimension ref="A1:M895"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
